--- a/planilha1.xlsx
+++ b/planilha1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cairo\OneDrive\Cairocorp\sistema-amigo-diego\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d39578dbcfeea06/Cairocorp/sistema-amigo-diego/sistema-amigo-diego/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98841E54-D161-4A93-BABB-3682F6670D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{98841E54-D161-4A93-BABB-3682F6670D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF642C8B-079C-46C6-8A8E-CA639CED8293}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A2" sqref="A2:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,6 +447,534 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
